--- a/Document/Log Lam viec.xlsx
+++ b/Document/Log Lam viec.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Huy</t>
   </si>
@@ -96,6 +96,24 @@
   </si>
   <si>
     <t>gặp thầy để xem: báo cáo + chương trình</t>
+  </si>
+  <si>
+    <t>23/01/2013</t>
+  </si>
+  <si>
+    <t>dữ liệu mẫu</t>
+  </si>
+  <si>
+    <t>full text search</t>
+  </si>
+  <si>
+    <t>slide ravendb</t>
+  </si>
+  <si>
+    <t>đọc báo cáo của Thầy Vương</t>
+  </si>
+  <si>
+    <t>chuẩn bị để gặp cô</t>
   </si>
 </sst>
 </file>
@@ -150,10 +168,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,12 +548,47 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A27:B27"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>

--- a/Document/Log Lam viec.xlsx
+++ b/Document/Log Lam viec.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Huy</t>
   </si>
@@ -114,6 +114,15 @@
   </si>
   <si>
     <t>chuẩn bị để gặp cô</t>
+  </si>
+  <si>
+    <t>29/01/2013</t>
+  </si>
+  <si>
+    <t>- ravenDB vs MSSQL 2012 express: có biểu đồ, số liệu để so sánh insert, query (Huy)</t>
+  </si>
+  <si>
+    <t>- Chương 2</t>
   </si>
 </sst>
 </file>
@@ -476,15 +485,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.140625" customWidth="1"/>
+    <col min="1" max="1" width="76" customWidth="1"/>
     <col min="2" max="2" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -584,6 +593,19 @@
         <v>20</v>
       </c>
       <c r="B27" s="3"/>
+    </row>
+    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Document/Log Lam viec.xlsx
+++ b/Document/Log Lam viec.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Huy</t>
   </si>
@@ -123,13 +123,31 @@
   </si>
   <si>
     <t>- Chương 2</t>
+  </si>
+  <si>
+    <t>post reply trong reply email</t>
+  </si>
+  <si>
+    <t>bắt validation cho form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">đính kèm tập tin
+- lưu file vào folder của user up lên
+- đổi tên file thành số GUID
+- thêm thuộc tính List cho Topic để chứa các file đã up </t>
+  </si>
+  <si>
+    <t>thông tin user group</t>
+  </si>
+  <si>
+    <t>chương 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +167,14 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -177,12 +203,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -485,10 +516,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,10 +530,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -605,6 +637,32 @@
       </c>
       <c r="B31" s="1" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>41306</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -612,7 +670,8 @@
     <mergeCell ref="A27:B27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Document/Log Lam viec.xlsx
+++ b/Document/Log Lam viec.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14128"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Software Engineering-UIT\HK 9 (12-13)\Do an tot nghiep\Projects\MyProject\DaHuGroupProject\Document\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +26,7 @@
     <author>Duong Than Dan</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Huy</t>
   </si>
@@ -141,6 +146,18 @@
   </si>
   <si>
     <t>chương 2</t>
+  </si>
+  <si>
+    <t>26/02/2013</t>
+  </si>
+  <si>
+    <t>Owner: upgrade member to manager</t>
+  </si>
+  <si>
+    <t>chinh sua format bao cao</t>
+  </si>
+  <si>
+    <t>thong bao su kien giong FB</t>
   </si>
 </sst>
 </file>
@@ -207,13 +224,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -224,6 +241,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -272,7 +292,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -307,7 +327,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -516,11 +536,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,10 +550,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -621,10 +641,10 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="3"/>
+      <c r="B27" s="6"/>
     </row>
     <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
@@ -640,7 +660,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
+      <c r="A36" s="3">
         <v>41306</v>
       </c>
     </row>
@@ -653,7 +673,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B38" t="s">
@@ -663,6 +683,24 @@
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Document/Log Lam viec.xlsx
+++ b/Document/Log Lam viec.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Huy</t>
   </si>
@@ -158,6 +158,21 @@
   </si>
   <si>
     <t>thong bao su kien giong FB</t>
+  </si>
+  <si>
+    <t>man hinh dang ky group, dang nhap, dang ky thanh vien, joinrequest,my setting, upload file</t>
+  </si>
+  <si>
+    <t>use case thiet mot so use case quan ly ca nhan hoac quan ly nhom</t>
+  </si>
+  <si>
+    <t>chuong 5: phan ket qua thuc nghiem neu ro ra chuong trinh gom nhung chuc nang gi, han che va dinh huong phat trien (DAN)</t>
+  </si>
+  <si>
+    <t>chuong 2: viet lai phan tai sao chon nosql, uu diem nhuoc diem rut ngan gon lai (HUY)</t>
+  </si>
+  <si>
+    <t>DANH SACH USECASE</t>
   </si>
 </sst>
 </file>
@@ -168,7 +183,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -189,7 +204,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -536,20 +551,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
+      <selection pane="bottomLeft" activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="76" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="1" max="1" width="98.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -557,7 +572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -565,7 +580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -573,7 +588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -581,22 +596,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -604,22 +619,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -627,12 +642,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -640,18 +655,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B27" s="6"/>
     </row>
-    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>22</v>
       </c>
@@ -659,12 +674,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>41306</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>25</v>
       </c>
@@ -672,7 +687,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>26</v>
       </c>
@@ -680,17 +695,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>31</v>
       </c>
@@ -698,9 +713,32 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -719,7 +757,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -731,7 +769,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Document/Log Lam viec.xlsx
+++ b/Document/Log Lam viec.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Software Engineering-UIT\HK 9 (12-13)\Do an tot nghiep\Projects\MyProject\DaHuGroupProject\Document\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235"/>
   </bookViews>
@@ -26,7 +21,7 @@
     <author>Duong Than Dan</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>Huy</t>
   </si>
@@ -166,13 +161,28 @@
     <t>use case thiet mot so use case quan ly ca nhan hoac quan ly nhom</t>
   </si>
   <si>
-    <t>chuong 5: phan ket qua thuc nghiem neu ro ra chuong trinh gom nhung chuc nang gi, han che va dinh huong phat trien (DAN)</t>
-  </si>
-  <si>
-    <t>chuong 2: viet lai phan tai sao chon nosql, uu diem nhuoc diem rut ngan gon lai (HUY)</t>
-  </si>
-  <si>
     <t>DANH SACH USECASE</t>
+  </si>
+  <si>
+    <t>chuong 5: phan ket qua thuc nghiem neu ro ra chuong trinh gom nhung chuc nang gi, han che va dinh huong phat trien</t>
+  </si>
+  <si>
+    <t>chuong 2: viet lai phan tai sao chon nosql, uu diem nhuoc diem rut ngan gon lai</t>
+  </si>
+  <si>
+    <t>thêm dữ liệu (total record ~ 1 triệu)</t>
+  </si>
+  <si>
+    <t>vẽ class diagram</t>
+  </si>
+  <si>
+    <t>xem lại bảng ss của FB Search</t>
+  </si>
+  <si>
+    <t>slide: thêm slide chức năng ứng dụng</t>
+  </si>
+  <si>
+    <t>viết kịch bản demo</t>
   </si>
 </sst>
 </file>
@@ -183,7 +193,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -204,7 +214,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -307,7 +317,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -342,7 +352,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -551,20 +561,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A48" sqref="A48"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="98.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.75" customWidth="1"/>
+    <col min="1" max="1" width="98.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -572,7 +582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -580,7 +590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -588,7 +598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -596,22 +606,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -619,22 +629,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -642,12 +652,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -655,18 +665,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B27" s="6"/>
     </row>
-    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>22</v>
       </c>
@@ -674,12 +684,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>41306</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>25</v>
       </c>
@@ -687,7 +697,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>26</v>
       </c>
@@ -695,17 +705,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>31</v>
       </c>
@@ -713,32 +723,58 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="B48" t="s">
         <v>37</v>
       </c>
-      <c r="B48" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>41520</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>38</v>
+      </c>
+      <c r="B53" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -757,7 +793,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -769,7 +805,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Document/Log Lam viec.xlsx
+++ b/Document/Log Lam viec.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14128"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Software Engineering-UIT\HK 9 (12-13)\Do an tot nghiep\Projects\MyProject\DaHuGroupsProject\Document\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235"/>
   </bookViews>
@@ -21,7 +26,7 @@
     <author>Duong Than Dan</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>Huy</t>
   </si>
@@ -183,6 +188,9 @@
   </si>
   <si>
     <t>viết kịch bản demo</t>
+  </si>
+  <si>
+    <t>owner ko duoc quyen chuyen xuong manager hay member</t>
   </si>
 </sst>
 </file>
@@ -193,7 +201,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -214,7 +222,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -317,7 +325,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -352,7 +360,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -561,20 +569,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
+      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="98.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="1" max="1" width="98.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -582,7 +590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -590,7 +598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -598,7 +606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -606,22 +614,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -629,22 +637,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -652,12 +660,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -665,18 +673,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B27" s="6"/>
     </row>
-    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>22</v>
       </c>
@@ -684,12 +692,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>41306</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>25</v>
       </c>
@@ -697,7 +705,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>26</v>
       </c>
@@ -705,17 +713,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>31</v>
       </c>
@@ -723,22 +731,22 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>35</v>
       </c>
@@ -746,17 +754,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>41520</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>38</v>
       </c>
@@ -764,7 +772,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>42</v>
       </c>
@@ -772,9 +780,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -793,7 +806,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -805,7 +818,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
